--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}us-core-7:Performed SHALL be present if the status is 'completed' or 'in-progress' {(status='completed' or status='in-progress') implies performed.exists()}mcode-reason-required:One of reasonCode or reasonReference SHALL be present {reasonCode.exists() or reasonReference.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}us-core-7:Performed SHALL be present if the status is 'completed' or 'in-progress' {(status='completed' or status='in-progress') implies performed.exists()}mcode-reason-required:One of reasonCode or reasonReference SHALL be present {reasonCode.exists() or reasonReference.exists()}o-sur-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-sur-req-2:The performedDateTime element is required and must be provided. {performedDateTime.exists() and performedDateTime.hasValue()}o-sur-req-3:The code element is required and must be provided. {code.exists() and code.coding.exists()}o-sur-req-4:The treatmentIntent extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent').exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -473,7 +473,7 @@
     <t>therapyLine</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/ext-therapy-line-reference|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/ext-therapy-line-reference|0.2.0}
 </t>
   </si>
   <si>
@@ -737,7 +737,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -784,8 +784,8 @@
     <t>Procedure.performed[x]</t>
   </si>
   <si>
-    <t>dateTime
-PeriodstringAgeRange</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>(USCDI) When the procedure was performed</t>
@@ -1003,7 +1003,7 @@
     <t>Procedure.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.1.0|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition|0.2.0)
 </t>
   </si>
   <si>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="407">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile representing a surgical procedure performed on a cancer patient, including details about the procedure, its intent, and relevant dates. 
-It extends the base mCODE [CancerRelatedSurgicalProcedure profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-related-surgical-procedure) to include specific constraints and requirements for Onconova.</t>
+    <t xml:space="preserve">A profile representing a surgical procedure performed on a cancer patient, including details about the procedure, its intent, and relevant dates. 
+It extends the base mCODE [CancerRelatedSurgicalProcedure profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-related-surgical-procedure) to include specific constraints and requirements for Onconova.
+**Conformance:**
+Procedure resources representing a surgery in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-related-surgical-procedure|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-cancer-related-surgical-procedure</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -362,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -453,7 +455,7 @@
     <t>treatmentIntent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent}
 </t>
   </si>
   <si>
@@ -473,7 +475,7 @@
     <t>therapyLine</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/ext-therapy-line-reference|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-reference}
 </t>
   </si>
   <si>
@@ -540,7 +542,7 @@
     <t>Procedure.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(PlanDefinition|4.0.1|ActivityDefinition|4.0.1|Measure|4.0.1|OperationDefinition|4.0.1|Questionnaire|4.0.1)
+    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Measure|OperationDefinition|Questionnaire)
 </t>
   </si>
   <si>
@@ -578,7 +580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-servicerequest|6.1.0)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan|http://hl7.org/fhir/us/core/StructureDefinition/us-core-servicerequest)
 </t>
   </si>
   <si>
@@ -598,7 +600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure|4.0.1|Observation|4.0.1|MedicationAdministration|4.0.1)
+    <t xml:space="preserve">Reference(Procedure|Observation|MedicationAdministration)
 </t>
   </si>
   <si>
@@ -612,25 +614,16 @@
   </si>
   <si>
     <t>Procedure.status</t>
-  </si>
-  <si>
-    <t>(USCDI) preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the procedure. Generally, this will be the in-progress or completed state.</t>
   </si>
   <si>
     <t>The "unknown" code is not to be used to convey other statuses.  The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
 This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>completed</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/event-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/event-status</t>
   </si>
   <si>
     <t xml:space="preserve">us-core-7
@@ -666,7 +659,7 @@
     <t>A code that identifies the reason a procedure was not performed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-not-performed-reason</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -687,7 +680,7 @@
     <t>A code that classifies a procedure for searching, sorting and display purposes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-category</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -712,10 +705,7 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-related-surgical-procedure-vs|4.0.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-surgical-procedures</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -737,7 +727,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
@@ -762,7 +752,7 @@
     <t>Procedure.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -788,7 +778,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) When the procedure was performed</t>
+    <t>The date on which the surgical procedure was performed</t>
   </si>
   <si>
     <t>Estimated or actual date, date-time, period, or age when the procedure was performed.  Allows a period to support complex procedures that span more than one date, and also allows for the length of the procedure to be captured.</t>
@@ -812,7 +802,7 @@
     <t>Procedure.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
@@ -907,7 +897,7 @@
     <t>A code that identifies the role of a performer of the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -922,7 +912,7 @@
     <t>Procedure.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
 </t>
   </si>
   <si>
@@ -950,7 +940,7 @@
     <t>Procedure.performer.onBehalfOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -969,7 +959,7 @@
     <t>Procedure.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|4.0.1)
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -988,7 +978,10 @@
     <t>Use Procedure.reasonCode when a code sufficiently describes the reason.  Use Procedure.reasonReference when referencing a resource, which allows more information to be conveyed, such as onset date. Procedure.reasonCode and Procedure.reasonReference are not meant to be duplicative.  For a single reason, either Procedure.reasonCode or Procedure.reasonReference can be used.  Procedure.reasonCode may be a summary code, or Procedure.reasonReference may be used to reference a very precise definition of the reason using Condition | Observation | Procedure | DiagnosticReport | DocumentReference.  Both Procedure.reasonCode and Procedure.reasonReference can be used if they are describing different reasons for the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-disorder-vs|4.0.0</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-cancer-disorder-vs</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1003,11 +996,11 @@
     <t>Procedure.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition)
 </t>
   </si>
   <si>
-    <t>The justification that the procedure was performed</t>
+    <t>The condition(s) that motivated the surgical procedure</t>
   </si>
   <si>
     <t>The justification of why the procedure was performed.</t>
@@ -1035,7 +1028,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -1059,7 +1052,7 @@
     <t>locationQualifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-body-location-qualifier|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-body-location-qualifier}
 </t>
   </si>
   <si>
@@ -1072,7 +1065,7 @@
     <t>lateralityQualifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-laterality-qualifier|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-laterality-qualifier}
 </t>
   </si>
   <si>
@@ -1146,7 +1139,7 @@
     <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUT].target.text</t>
@@ -1155,7 +1148,7 @@
     <t>Procedure.report</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DiagnosticReport|4.0.1|DocumentReference|4.0.1|Composition|4.0.1)
+    <t xml:space="preserve">Reference(DiagnosticReport|DocumentReference|Composition)
 </t>
   </si>
   <si>
@@ -1174,7 +1167,7 @@
     <t>Codes describing complications that resulted from a procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=OUTC].target[classCode=OBS, code="complication", moodCode=EVN].value</t>
@@ -1183,7 +1176,7 @@
     <t>Procedure.complicationDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1)
+    <t xml:space="preserve">Reference(Condition)
 </t>
   </si>
   <si>
@@ -1196,7 +1189,7 @@
     <t>Specific follow up required for a procedure e.g. removal of sutures.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-followup|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-followup</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
@@ -1251,7 +1244,7 @@
     <t>A kind of change that happened to the device during the procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-action|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/device-action</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="procedure device action"].value=:procedure device action codes</t>
@@ -1260,7 +1253,7 @@
     <t>Procedure.focalDevice.manipulated</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|4.0.1)
+    <t xml:space="preserve">Reference(Device)
 </t>
   </si>
   <si>
@@ -1276,7 +1269,7 @@
     <t>Procedure.usedReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|Medication|4.0.1|Substance|4.0.1)
+    <t xml:space="preserve">Reference(Device|Medication|Substance)
 </t>
   </si>
   <si>
@@ -1296,7 +1289,7 @@
     <t>Codes describing items used during a procedure.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/device-kind|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/device-kind</t>
   </si>
   <si>
     <t>participation[typeCode=Dev].role[classCode=MANU]</t>
@@ -1638,7 +1631,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="155.96484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="146.90625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1653,7 +1646,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="62.6328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.21875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.1328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2600,7 +2593,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>78</v>
@@ -2712,7 +2705,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>86</v>
@@ -3640,13 +3633,13 @@
         <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3657,7 +3650,7 @@
         <v>20</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>20</v>
@@ -3672,11 +3665,11 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -3703,19 +3696,19 @@
         <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -3723,14 +3716,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3749,7 +3742,7 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>180</v>
@@ -3758,7 +3751,7 @@
         <v>180</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3784,13 +3777,13 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3808,7 +3801,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3823,10 +3816,10 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>20</v>
@@ -3837,10 +3830,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3863,13 +3856,13 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3896,13 +3889,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -3920,7 +3913,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3938,10 +3931,10 @@
         <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>20</v>
@@ -3949,14 +3942,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3975,17 +3968,17 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4010,11 +4003,11 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -4032,7 +4025,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4047,28 +4040,28 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4087,13 +4080,13 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4144,7 +4137,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4159,24 +4152,24 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4199,7 +4192,7 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>180</v>
@@ -4208,7 +4201,7 @@
         <v>180</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4258,7 +4251,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4273,24 +4266,24 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4313,16 +4306,16 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4372,7 +4365,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4381,30 +4374,30 @@
         <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4427,7 +4420,7 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>180</v>
@@ -4484,7 +4477,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4502,10 +4495,10 @@
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>20</v>
@@ -4513,10 +4506,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4539,7 +4532,7 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>180</v>
@@ -4596,7 +4589,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4614,10 +4607,10 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -4625,10 +4618,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4651,7 +4644,7 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>180</v>
@@ -4708,7 +4701,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4723,10 +4716,10 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
@@ -4737,10 +4730,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4763,13 +4756,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4820,7 +4813,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4838,7 +4831,7 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
@@ -4849,10 +4842,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4878,10 +4871,10 @@
         <v>131</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>153</v>
@@ -4934,7 +4927,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4952,7 +4945,7 @@
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
@@ -4963,14 +4956,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -4992,10 +4985,10 @@
         <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>153</v>
@@ -5050,7 +5043,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5079,10 +5072,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5105,17 +5098,17 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5140,13 +5133,13 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5164,7 +5157,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5179,24 +5172,24 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5219,17 +5212,17 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5278,7 +5271,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
@@ -5293,24 +5286,24 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5333,17 +5326,17 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -5392,7 +5385,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5410,7 +5403,7 @@
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5421,10 +5414,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5447,7 +5440,7 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>180</v>
@@ -5457,7 +5450,7 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5506,7 +5499,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5524,10 +5517,10 @@
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>20</v>
@@ -5535,10 +5528,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5561,7 +5554,7 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>180</v>
@@ -5570,7 +5563,7 @@
         <v>180</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5596,11 +5589,11 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -5618,7 +5611,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5633,13 +5626,13 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>20</v>
@@ -5647,10 +5640,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5658,7 +5651,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>78</v>
@@ -5673,16 +5666,16 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5732,7 +5725,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5747,13 +5740,13 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>20</v>
@@ -5761,10 +5754,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5787,16 +5780,16 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5822,13 +5815,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -5846,7 +5839,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5864,21 +5857,21 @@
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5901,13 +5894,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5958,7 +5951,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5976,7 +5969,7 @@
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
@@ -5987,10 +5980,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6061,7 +6054,7 @@
         <v>134</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>20</v>
@@ -6070,7 +6063,7 @@
         <v>135</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6099,13 +6092,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C40" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>20</v>
@@ -6127,13 +6120,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6184,7 +6177,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6213,13 +6206,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>20</v>
@@ -6241,13 +6234,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6298,7 +6291,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6327,10 +6320,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6353,19 +6346,19 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -6414,7 +6407,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6432,21 +6425,21 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6469,19 +6462,19 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O43" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -6530,7 +6523,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6548,21 +6541,21 @@
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6585,16 +6578,16 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6620,13 +6613,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -6644,7 +6637,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6662,7 +6655,7 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
@@ -6673,10 +6666,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6699,7 +6692,7 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>180</v>
@@ -6708,7 +6701,7 @@
         <v>180</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6758,7 +6751,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6776,7 +6769,7 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -6787,10 +6780,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6813,7 +6806,7 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>180</v>
@@ -6822,7 +6815,7 @@
         <v>180</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6848,13 +6841,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -6872,7 +6865,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6890,7 +6883,7 @@
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
@@ -6901,10 +6894,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6927,7 +6920,7 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>180</v>
@@ -6937,7 +6930,7 @@
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -6986,7 +6979,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7004,7 +6997,7 @@
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
@@ -7015,10 +7008,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7041,7 +7034,7 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>180</v>
@@ -7074,13 +7067,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7098,7 +7091,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7116,7 +7109,7 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -7127,10 +7120,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7153,13 +7146,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7210,7 +7203,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7225,24 +7218,24 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7265,7 +7258,7 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>180</v>
@@ -7322,7 +7315,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7340,7 +7333,7 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
@@ -7351,10 +7344,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7377,13 +7370,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7434,7 +7427,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7452,7 +7445,7 @@
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
@@ -7463,10 +7456,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7492,10 +7485,10 @@
         <v>131</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>153</v>
@@ -7548,7 +7541,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7566,7 +7559,7 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -7577,14 +7570,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7606,10 +7599,10 @@
         <v>131</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>153</v>
@@ -7664,7 +7657,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7693,10 +7686,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7719,13 +7712,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7755,10 +7748,10 @@
         <v>110</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -7776,7 +7769,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7794,7 +7787,7 @@
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
@@ -7805,10 +7798,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7831,13 +7824,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7888,7 +7881,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>86</v>
@@ -7906,7 +7899,7 @@
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -7917,10 +7910,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7943,7 +7936,7 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>180</v>
@@ -7952,10 +7945,10 @@
         <v>180</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8004,7 +7997,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8022,7 +8015,7 @@
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8033,10 +8026,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8059,7 +8052,7 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>180</v>
@@ -8068,7 +8061,7 @@
         <v>180</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8094,13 +8087,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8118,7 +8111,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8136,7 +8129,7 @@
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="423">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -469,6 +469,86 @@
 </t>
   </si>
   <si>
+    <t>Procedure.extension:treatmentIntent.id</t>
+  </si>
+  <si>
+    <t>Procedure.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Procedure.extension:treatmentIntent.extension</t>
+  </si>
+  <si>
+    <t>Procedure.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Procedure.extension:treatmentIntent.url</t>
+  </si>
+  <si>
+    <t>Procedure.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Procedure.extension:treatmentIntent.value[x]</t>
+  </si>
+  <si>
+    <t>Procedure.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-treatment-intents</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t>Procedure.extension:therapyLine</t>
   </si>
   <si>
@@ -620,9 +700,6 @@
 This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/event-status</t>
   </si>
   <si>
@@ -646,10 +723,6 @@
 Cancelled Reason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>This is generally only used for "exception" statuses such as "not-done", "suspended" or "aborted". The reason for performing the event at all is captured in reasonCode, not here.</t>
   </si>
   <si>
@@ -837,22 +910,6 @@
     <t>Procedure.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Procedure.performer.extension</t>
   </si>
   <si>
@@ -860,9 +917,6 @@
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Procedure.performer.modifierExtension</t>
@@ -1043,9 +1097,6 @@
     <t>Procedure.bodySite.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>Procedure.bodySite.extension:locationQualifier</t>
   </si>
   <si>
@@ -1134,9 +1185,6 @@
   </si>
   <si>
     <t>If outcome contains narrative text only, it can be captured using the CodeableConcept.text.</t>
-  </si>
-  <si>
-    <t>An outcome of a procedure - whether it was resolved or otherwise.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
@@ -1612,7 +1660,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN57"/>
+  <dimension ref="A1:AN61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2804,16 +2852,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s" s="2">
         <v>145</v>
       </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>20</v>
       </c>
@@ -2825,7 +2871,7 @@
         <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>20</v>
@@ -2891,25 +2937,25 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>20</v>
@@ -2920,27 +2966,27 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>20</v>
@@ -2949,17 +2995,13 @@
         <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>20</v>
       </c>
@@ -2995,19 +3037,19 @@
         <v>20</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3025,7 +3067,7 @@
         <v>20</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>20</v>
@@ -3036,7 +3078,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>156</v>
@@ -3047,10 +3089,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -3059,29 +3101,27 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>20</v>
@@ -3123,39 +3163,39 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3163,10 +3203,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -3175,16 +3215,16 @@
         <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3211,13 +3251,11 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3235,13 +3273,13 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
@@ -3250,26 +3288,28 @@
         <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="B15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AM14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>20</v>
       </c>
@@ -3278,19 +3318,19 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>173</v>
@@ -3298,9 +3338,7 @@
       <c r="M15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3349,7 +3387,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3361,13 +3399,13 @@
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>20</v>
@@ -3378,14 +3416,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3398,22 +3436,26 @@
         <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>20</v>
       </c>
@@ -3461,7 +3503,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3473,13 +3515,13 @@
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>20</v>
@@ -3490,14 +3532,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3516,18 +3558,20 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="O17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
       </c>
@@ -3575,7 +3619,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3590,24 +3634,24 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>20</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3615,32 +3659,30 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3665,50 +3707,52 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -3716,21 +3760,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -3742,16 +3786,16 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3777,13 +3821,13 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3801,13 +3845,13 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
@@ -3816,10 +3860,10 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>20</v>
@@ -3830,21 +3874,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3856,13 +3900,13 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3889,13 +3933,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -3913,13 +3957,13 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
@@ -3928,38 +3972,38 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>20</v>
@@ -3968,18 +4012,18 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
       </c>
@@ -4003,11 +4047,13 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z21" t="s" s="2">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -4025,13 +4071,13 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
@@ -4040,28 +4086,28 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>222</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4074,21 +4120,23 @@
         <v>87</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4113,13 +4161,11 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -4137,7 +4183,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4146,34 +4192,34 @@
         <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>231</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4192,16 +4238,16 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>164</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4227,13 +4273,13 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -4251,7 +4297,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4266,24 +4312,24 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4297,7 +4343,7 @@
         <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>20</v>
@@ -4306,17 +4352,15 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4341,13 +4385,13 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>20</v>
+        <v>234</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4365,7 +4409,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4374,44 +4418,44 @@
         <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>244</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>247</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>20</v>
+        <v>238</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>20</v>
@@ -4420,16 +4464,18 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4453,13 +4499,11 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4477,7 +4521,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4492,38 +4536,38 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>20</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>20</v>
@@ -4535,10 +4579,10 @@
         <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4589,10 +4633,10 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>86</v>
@@ -4604,7 +4648,7 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>253</v>
@@ -4613,15 +4657,15 @@
         <v>254</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>20</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4632,7 +4676,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -4644,15 +4688,17 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -4701,13 +4747,13 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
@@ -4716,24 +4762,24 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>20</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4747,24 +4793,26 @@
         <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4822,41 +4870,41 @@
         <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>20</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4865,20 +4913,18 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>131</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -4927,28 +4973,28 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -4956,46 +5002,42 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5043,28 +5085,28 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>129</v>
+        <v>277</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -5072,10 +5114,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5086,7 +5128,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -5098,18 +5140,16 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>206</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5133,37 +5173,37 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
@@ -5172,16 +5212,16 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>282</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" hidden="true">
@@ -5197,7 +5237,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>86</v>
@@ -5209,21 +5249,19 @@
         <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>284</v>
+        <v>146</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>147</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5271,10 +5309,10 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>149</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>86</v>
@@ -5283,38 +5321,38 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>289</v>
+        <v>150</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>291</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5326,18 +5364,18 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>293</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5385,25 +5423,25 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>297</v>
+        <v>150</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5414,43 +5452,45 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5499,39 +5539,39 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>302</v>
+        <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5542,10 +5582,10 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>20</v>
@@ -5554,18 +5594,18 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>180</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5589,11 +5629,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -5611,13 +5653,13 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
@@ -5626,24 +5668,24 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5654,10 +5696,10 @@
         <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>20</v>
@@ -5666,18 +5708,18 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -5725,13 +5767,13 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
@@ -5740,24 +5782,24 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AN36" t="s" s="2">
-        <v>20</v>
-      </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5768,30 +5810,30 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>199</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -5815,13 +5857,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -5839,13 +5881,13 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
@@ -5857,21 +5899,21 @@
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>323</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5891,19 +5933,21 @@
         <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -5951,7 +5995,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5963,27 +6007,27 @@
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>20</v>
+        <v>320</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6003,18 +6047,20 @@
         <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6039,31 +6085,29 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>326</v>
+        <v>20</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6075,16 +6119,16 @@
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>20</v>
@@ -6092,20 +6136,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C40" t="s" s="2">
         <v>328</v>
       </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6117,7 +6159,7 @@
         <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>329</v>
@@ -6126,9 +6168,11 @@
         <v>330</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6177,7 +6221,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>268</v>
+        <v>328</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6189,16 +6233,16 @@
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>20</v>
+        <v>333</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>20</v>
@@ -6206,14 +6250,12 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6222,7 +6264,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>87</v>
@@ -6231,18 +6273,20 @@
         <v>20</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>333</v>
+        <v>164</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6267,13 +6311,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6291,7 +6335,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>268</v>
+        <v>334</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6303,27 +6347,27 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>20</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6334,7 +6378,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6343,23 +6387,19 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>336</v>
+        <v>146</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>337</v>
+        <v>147</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6407,39 +6447,39 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>341</v>
+        <v>149</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>342</v>
+        <v>150</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>343</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6450,32 +6490,28 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>345</v>
+        <v>132</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6511,53 +6547,55 @@
         <v>20</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>154</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>351</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>20</v>
       </c>
@@ -6566,29 +6604,27 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>199</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -6613,13 +6649,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>356</v>
+        <v>20</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -6637,25 +6673,25 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>352</v>
+        <v>154</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>358</v>
+        <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
@@ -6664,14 +6700,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>20</v>
       </c>
@@ -6680,10 +6718,10 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>20</v>
@@ -6692,17 +6730,15 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>180</v>
+        <v>351</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -6751,7 +6787,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>359</v>
+        <v>154</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6763,13 +6799,13 @@
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>362</v>
+        <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -6780,10 +6816,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6803,21 +6839,23 @@
         <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>199</v>
+        <v>353</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>180</v>
+        <v>354</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>180</v>
+        <v>355</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
       </c>
@@ -6841,13 +6879,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>365</v>
+        <v>20</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -6865,7 +6903,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6883,21 +6921,21 @@
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>20</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6908,7 +6946,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -6917,20 +6955,22 @@
         <v>20</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>146</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>180</v>
+        <v>362</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -6979,13 +7019,13 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
@@ -7003,15 +7043,15 @@
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>20</v>
+        <v>368</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7022,27 +7062,29 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>180</v>
+        <v>370</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7067,11 +7109,9 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
         <v>373</v>
       </c>
@@ -7091,13 +7131,13 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
@@ -7149,12 +7189,14 @@
         <v>376</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7218,24 +7260,24 @@
         <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>381</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7258,15 +7300,17 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7291,13 +7335,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>20</v>
+        <v>381</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>20</v>
+        <v>382</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7315,7 +7359,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7358,7 +7402,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -7370,16 +7414,18 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>260</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7427,25 +7473,25 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>263</v>
+        <v>384</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>264</v>
+        <v>383</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
@@ -7456,14 +7502,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7482,17 +7528,15 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -7517,13 +7561,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>20</v>
+        <v>225</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7541,7 +7585,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>268</v>
+        <v>387</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7553,13 +7597,13 @@
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>264</v>
+        <v>390</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -7570,14 +7614,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7590,26 +7634,22 @@
         <v>20</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>271</v>
+        <v>393</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
@@ -7657,7 +7697,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>273</v>
+        <v>391</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7669,27 +7709,27 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>20</v>
+        <v>395</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>129</v>
+        <v>396</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7700,7 +7740,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -7712,13 +7752,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>389</v>
+        <v>206</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7745,13 +7785,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>390</v>
+        <v>20</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>391</v>
+        <v>20</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -7769,13 +7809,13 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
@@ -7787,7 +7827,7 @@
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
@@ -7798,10 +7838,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7809,7 +7849,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>86</v>
@@ -7824,13 +7864,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>394</v>
+        <v>146</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>395</v>
+        <v>147</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>396</v>
+        <v>148</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7881,10 +7921,10 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>393</v>
+        <v>149</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>86</v>
@@ -7893,13 +7933,13 @@
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>397</v>
+        <v>150</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -7910,14 +7950,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7936,20 +7976,18 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>399</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>180</v>
+        <v>286</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -7997,7 +8035,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>398</v>
+        <v>154</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8009,13 +8047,13 @@
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>402</v>
+        <v>150</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8026,14 +8064,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8046,24 +8084,26 @@
         <v>20</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O57" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8087,13 +8127,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>404</v>
+        <v>20</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>405</v>
+        <v>20</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -8111,7 +8151,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>403</v>
+        <v>291</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8123,23 +8163,477 @@
         <v>20</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AK58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN57">
+  <autoFilter ref="A1:AN61">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8149,7 +8643,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -269,7 +269,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}us-core-7:Performed SHALL be present if the status is 'completed' or 'in-progress' {(status='completed' or status='in-progress') implies performed.exists()}mcode-reason-required:One of reasonCode or reasonReference SHALL be present {reasonCode.exists() or reasonReference.exists()}o-sur-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-sur-req-2:The performedDateTime element is required and must be provided. {performedDateTime.exists() and performedDateTime.hasValue()}o-sur-req-3:The code element is required and must be provided. {code.exists() and code.coding.exists()}o-sur-req-4:The treatmentIntent extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent').exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}us-core-7:Performed SHALL be present if the status is 'completed' or 'in-progress' {(status='completed' or status='in-progress') implies performed.exists()}mcode-reason-required:One of reasonCode or reasonReference SHALL be present {reasonCode.exists() or reasonReference.exists()}o-sur-req-1:The subject element is required and must be provided. {subject.exists()}o-sur-req-2:The performedDateTime element is required and must be provided. {performedDateTime.exists() and performedDateTime.hasValue()}o-sur-req-3:The code element is required and must be provided. {code.exists() and code.coding.exists()}o-sur-req-4:The treatmentIntent extension is required and must be provided. {extension('http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-procedure-intent').exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-surgical-procedure.xlsx
+++ b/StructureDefinition-onconova-surgical-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
